--- a/output/StructureDefinition-pdex-entitysource-provenance.xlsx
+++ b/output/StructureDefinition-pdex-entitysource-provenance.xlsx
@@ -4692,7 +4692,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>216</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>53</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
@@ -5608,7 +5608,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>216</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>44</v>
@@ -6170,7 +6170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>247</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
